--- a/Document/resultquery.xlsx
+++ b/Document/resultquery.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="106">
   <si>
     <t>TRIE</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>FOUNDSTATUS</t>
+  </si>
+  <si>
+    <t>043E15</t>
   </si>
 </sst>
 </file>
@@ -817,9 +820,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1145,16 +1151,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K617"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="6" width="14" style="1" customWidth="1"/>
+    <col min="2" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2626,7 +2634,7 @@
         <v>815130674248</v>
       </c>
       <c r="I56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2652,7 +2660,7 @@
         <v>815130674246</v>
       </c>
       <c r="I57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -5456,8 +5464,8 @@
       <c r="D168" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E168" s="1">
-        <v>4.3E+16</v>
+      <c r="E168" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="F168" s="1">
         <v>9</v>
@@ -6677,7 +6685,7 @@
         <v>814130672758</v>
       </c>
       <c r="I214" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J214">
         <v>0</v>
